--- a/original_data/2016/North Central Crime Report 2016.xlsx
+++ b/original_data/2016/North Central Crime Report 2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="15315" windowHeight="7515" tabRatio="751" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="585" windowWidth="15315" windowHeight="7455" tabRatio="751" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Data" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="158">
   <si>
     <t>NORTH CENTRAL REGION</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Eastmont Pl</t>
   </si>
   <si>
-    <t xml:space="preserve">INCIDENTS - </t>
-  </si>
-  <si>
     <t>DECEMBER 2016</t>
   </si>
   <si>
@@ -486,6 +483,24 @@
   </si>
   <si>
     <t>INCIDENTS - 28</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 36</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 17</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 40</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 30</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 29</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 19</t>
   </si>
 </sst>
 </file>
@@ -965,22 +980,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
@@ -1417,7 +1432,7 @@
       </c>
       <c r="B2" s="11">
         <f>SUM(C2:J2)</f>
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="C2" s="9">
         <f>SUM(January!C2,February!C2,March!C2,April!C2,May!C2,June!C2,July!C2,August!C2,September!C2,October!C2,November!C2,December!C2)</f>
@@ -1425,27 +1440,27 @@
       </c>
       <c r="D2" s="9">
         <f>SUM(January!D2,February!D2,March!D2,April!D2,May!D2,June!D2,July!D2,August!D2,September!D2,October!D2,November!D2,December!D2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="9">
         <f>SUM(January!E2,February!E2,March!E2,April!E2,May!E2,June!E2,July!E2,August!E2,September!E2,October!E2,November!E2,December!E2)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(January!F2,February!F2,March!F2,April!F2,May!F2,June!F2,July!F2,August!F2,September!F2,October!F2,November!F2,December!F2)</f>
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(January!G2,February!G2,March!G2,April!G2,May!G2,June!G2,July!G2,August!G2,September!G2,October!G2,November!G2,December!G2)</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H2" s="9">
         <f>SUM(January!H2,February!H2,March!H2,April!H2,May!H2,June!H2,July!H2,August!H2,September!H2,October!H2,November!H2,December!H2)</f>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I2" s="9">
         <f>SUM(January!I2,February!I2,March!I2,April!I2,May!I2,June!I2,July!I2,August!I2,September!I2,October!I2,November!I2,December!I2)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J2" s="16">
         <f>SUM(January!J2,February!J2,March!J2,April!J2,May!J2,June!J2,July!J2,August!J2,September!J2,October!J2,November!J2,December!J2)</f>
@@ -1514,7 +1529,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -1527,19 +1542,19 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
@@ -1566,7 +1581,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -1728,8 +1743,8 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
+      <c r="H11" s="7">
+        <v>1</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
@@ -1786,8 +1801,8 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
+      <c r="F13" s="7">
+        <v>2</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -1882,8 +1897,8 @@
       <c r="E16" s="8">
         <v>0</v>
       </c>
-      <c r="F16" s="8">
-        <v>0</v>
+      <c r="F16" s="7">
+        <v>1</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -1978,8 +1993,8 @@
       <c r="E19" s="8">
         <v>0</v>
       </c>
-      <c r="F19" s="8">
-        <v>0</v>
+      <c r="F19" s="7">
+        <v>1</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
@@ -2042,11 +2057,11 @@
       <c r="E21" s="8">
         <v>0</v>
       </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
       </c>
       <c r="H21" s="8">
         <v>0</v>
@@ -2074,8 +2089,8 @@
       <c r="E22" s="8">
         <v>0</v>
       </c>
-      <c r="F22" s="8">
-        <v>0</v>
+      <c r="F22" s="7">
+        <v>2</v>
       </c>
       <c r="G22" s="8">
         <v>0</v>
@@ -2141,8 +2156,8 @@
       <c r="F24" s="8">
         <v>0</v>
       </c>
-      <c r="G24" s="8">
-        <v>0</v>
+      <c r="G24" s="7">
+        <v>1</v>
       </c>
       <c r="H24" s="8">
         <v>0</v>
@@ -2202,8 +2217,8 @@
       <c r="E26" s="8">
         <v>0</v>
       </c>
-      <c r="F26" s="8">
-        <v>0</v>
+      <c r="F26" s="7">
+        <v>1</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
@@ -2272,8 +2287,8 @@
       <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="8">
-        <v>0</v>
+      <c r="H28" s="7">
+        <v>1</v>
       </c>
       <c r="I28" s="8">
         <v>0</v>
@@ -2412,7 +2427,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -2568,8 +2583,8 @@
       <c r="E38" s="6">
         <v>0</v>
       </c>
-      <c r="F38" s="8">
-        <v>0</v>
+      <c r="F38" s="7">
+        <v>1</v>
       </c>
       <c r="G38" s="8">
         <v>0</v>
@@ -2664,8 +2679,8 @@
       <c r="E41" s="6">
         <v>0</v>
       </c>
-      <c r="F41" s="8">
-        <v>0</v>
+      <c r="F41" s="7">
+        <v>1</v>
       </c>
       <c r="G41" s="8">
         <v>0</v>
@@ -2920,8 +2935,8 @@
       <c r="E49" s="6">
         <v>0</v>
       </c>
-      <c r="F49" s="8">
-        <v>0</v>
+      <c r="F49" s="7">
+        <v>4</v>
       </c>
       <c r="G49" s="8">
         <v>0</v>
@@ -3237,11 +3252,11 @@
       <c r="D59" s="6">
         <v>0</v>
       </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0</v>
+      <c r="E59" s="7">
+        <v>1</v>
+      </c>
+      <c r="F59" s="7">
+        <v>5</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
@@ -3269,8 +3284,8 @@
       <c r="D60" s="6">
         <v>0</v>
       </c>
-      <c r="E60" s="6">
-        <v>0</v>
+      <c r="E60" s="7">
+        <v>1</v>
       </c>
       <c r="F60" s="8">
         <v>0</v>
@@ -3368,8 +3383,8 @@
       <c r="E63" s="6">
         <v>0</v>
       </c>
-      <c r="F63" s="8">
-        <v>0</v>
+      <c r="F63" s="7">
+        <v>1</v>
       </c>
       <c r="G63" s="8">
         <v>0</v>
@@ -3450,7 +3465,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -3606,8 +3621,8 @@
       <c r="E71" s="6">
         <v>0</v>
       </c>
-      <c r="F71" s="6">
-        <v>0</v>
+      <c r="F71" s="7">
+        <v>1</v>
       </c>
       <c r="G71" s="6">
         <v>0</v>
@@ -3638,11 +3653,11 @@
       <c r="E72" s="6">
         <v>0</v>
       </c>
-      <c r="F72" s="6">
-        <v>0</v>
-      </c>
-      <c r="G72" s="6">
-        <v>0</v>
+      <c r="F72" s="7">
+        <v>3</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1</v>
       </c>
       <c r="H72" s="6">
         <v>0</v>
@@ -3798,14 +3813,14 @@
       <c r="E77" s="6">
         <v>0</v>
       </c>
-      <c r="F77" s="6">
-        <v>0</v>
+      <c r="F77" s="7">
+        <v>1</v>
       </c>
       <c r="G77" s="6">
         <v>0</v>
       </c>
-      <c r="H77" s="6">
-        <v>0</v>
+      <c r="H77" s="7">
+        <v>1</v>
       </c>
       <c r="I77" s="6">
         <v>0</v>
@@ -3830,8 +3845,8 @@
       <c r="E78" s="6">
         <v>0</v>
       </c>
-      <c r="F78" s="6">
-        <v>0</v>
+      <c r="F78" s="7">
+        <v>2</v>
       </c>
       <c r="G78" s="6">
         <v>0</v>
@@ -3926,8 +3941,8 @@
       <c r="E81" s="6">
         <v>0</v>
       </c>
-      <c r="F81" s="6">
-        <v>0</v>
+      <c r="F81" s="7">
+        <v>2</v>
       </c>
       <c r="G81" s="6">
         <v>0</v>
@@ -3958,8 +3973,8 @@
       <c r="E82" s="6">
         <v>0</v>
       </c>
-      <c r="F82" s="6">
-        <v>0</v>
+      <c r="F82" s="7">
+        <v>3</v>
       </c>
       <c r="G82" s="6">
         <v>0</v>
@@ -4008,7 +4023,7 @@
       </c>
       <c r="B84" s="13">
         <f>SUM(C2:J2)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C84" s="7">
         <f>SUM(C8:C82)</f>
@@ -4020,19 +4035,19 @@
       </c>
       <c r="E84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="1"/>
@@ -4062,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4111,7 +4126,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -4124,23 +4139,23 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -4163,7 +4178,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -4383,8 +4398,8 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
+      <c r="F13" s="7">
+        <v>1</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -4489,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="8">
         <v>0</v>
@@ -5009,7 +5024,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -5293,8 +5308,8 @@
       <c r="E42" s="6">
         <v>0</v>
       </c>
-      <c r="F42" s="8">
-        <v>0</v>
+      <c r="F42" s="7">
+        <v>1</v>
       </c>
       <c r="G42" s="8">
         <v>0</v>
@@ -5514,17 +5529,17 @@
       <c r="D49" s="6">
         <v>0</v>
       </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0</v>
+      <c r="E49" s="7">
+        <v>2</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
       </c>
       <c r="G49" s="8">
         <v>0</v>
       </c>
-      <c r="H49" s="8">
-        <v>0</v>
+      <c r="H49" s="7">
+        <v>1</v>
       </c>
       <c r="I49" s="8">
         <v>0</v>
@@ -5581,8 +5596,8 @@
       <c r="E51" s="6">
         <v>0</v>
       </c>
-      <c r="F51" s="8">
-        <v>0</v>
+      <c r="F51" s="7">
+        <v>2</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
@@ -5677,8 +5692,8 @@
       <c r="E54" s="6">
         <v>0</v>
       </c>
-      <c r="F54" s="8">
-        <v>0</v>
+      <c r="F54" s="7">
+        <v>1</v>
       </c>
       <c r="G54" s="8">
         <v>0</v>
@@ -5837,8 +5852,8 @@
       <c r="E59" s="6">
         <v>0</v>
       </c>
-      <c r="F59" s="8">
-        <v>0</v>
+      <c r="F59" s="7">
+        <v>9</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
@@ -5846,8 +5861,8 @@
       <c r="H59" s="8">
         <v>0</v>
       </c>
-      <c r="I59" s="8">
-        <v>0</v>
+      <c r="I59" s="7">
+        <v>1</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -5901,8 +5916,8 @@
       <c r="E61" s="6">
         <v>0</v>
       </c>
-      <c r="F61" s="8">
-        <v>0</v>
+      <c r="F61" s="7">
+        <v>2</v>
       </c>
       <c r="G61" s="8">
         <v>0</v>
@@ -5933,8 +5948,8 @@
       <c r="E62" s="6">
         <v>0</v>
       </c>
-      <c r="F62" s="8">
-        <v>0</v>
+      <c r="F62" s="7">
+        <v>3</v>
       </c>
       <c r="G62" s="8">
         <v>0</v>
@@ -5962,8 +5977,8 @@
       <c r="D63" s="6">
         <v>0</v>
       </c>
-      <c r="E63" s="6">
-        <v>0</v>
+      <c r="E63" s="7">
+        <v>1</v>
       </c>
       <c r="F63" s="8">
         <v>0</v>
@@ -6000,8 +6015,8 @@
       <c r="F64" s="8">
         <v>0</v>
       </c>
-      <c r="G64" s="8">
-        <v>0</v>
+      <c r="G64" s="7">
+        <v>1</v>
       </c>
       <c r="H64" s="8">
         <v>0</v>
@@ -6029,8 +6044,8 @@
       <c r="E65" s="6">
         <v>0</v>
       </c>
-      <c r="F65" s="8">
-        <v>0</v>
+      <c r="F65" s="7">
+        <v>1</v>
       </c>
       <c r="G65" s="8">
         <v>0</v>
@@ -6047,7 +6062,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -6171,8 +6186,8 @@
       <c r="E70" s="6">
         <v>0</v>
       </c>
-      <c r="F70" s="6">
-        <v>0</v>
+      <c r="F70" s="7">
+        <v>1</v>
       </c>
       <c r="G70" s="6">
         <v>0</v>
@@ -6401,8 +6416,8 @@
       <c r="G77" s="6">
         <v>0</v>
       </c>
-      <c r="H77" s="6">
-        <v>0</v>
+      <c r="H77" s="7">
+        <v>1</v>
       </c>
       <c r="I77" s="6">
         <v>0</v>
@@ -6605,7 +6620,7 @@
       </c>
       <c r="B84" s="13">
         <f>SUM(C2:J2)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C84" s="7">
         <f>SUM(C8:C82)</f>
@@ -6617,23 +6632,23 @@
       </c>
       <c r="E84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" s="7">
         <f t="shared" si="1"/>
@@ -6707,7 +6722,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -6720,11 +6735,11 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
@@ -6732,11 +6747,11 @@
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -6759,7 +6774,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -6979,8 +6994,8 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
+      <c r="F13" s="7">
+        <v>2</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -7180,8 +7195,8 @@
       <c r="H19" s="8">
         <v>0</v>
       </c>
-      <c r="I19" s="8">
-        <v>0</v>
+      <c r="I19" s="7">
+        <v>1</v>
       </c>
       <c r="J19" s="8">
         <v>0</v>
@@ -7605,7 +7620,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -7831,8 +7846,8 @@
       <c r="G40" s="8">
         <v>0</v>
       </c>
-      <c r="H40" s="8">
-        <v>0</v>
+      <c r="H40" s="7">
+        <v>2</v>
       </c>
       <c r="I40" s="8">
         <v>0</v>
@@ -7921,8 +7936,8 @@
       <c r="E43" s="6">
         <v>0</v>
       </c>
-      <c r="F43" s="8">
-        <v>0</v>
+      <c r="F43" s="7">
+        <v>1</v>
       </c>
       <c r="G43" s="8">
         <v>0</v>
@@ -7953,8 +7968,8 @@
       <c r="E44" s="6">
         <v>0</v>
       </c>
-      <c r="F44" s="8">
-        <v>0</v>
+      <c r="F44" s="7">
+        <v>1</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
@@ -7962,8 +7977,8 @@
       <c r="H44" s="8">
         <v>0</v>
       </c>
-      <c r="I44" s="8">
-        <v>0</v>
+      <c r="I44" s="7">
+        <v>1</v>
       </c>
       <c r="J44" s="8">
         <v>0</v>
@@ -8145,14 +8160,14 @@
       <c r="E50" s="6">
         <v>0</v>
       </c>
-      <c r="F50" s="8">
-        <v>0</v>
+      <c r="F50" s="7">
+        <v>1</v>
       </c>
       <c r="G50" s="8">
         <v>0</v>
       </c>
-      <c r="H50" s="8">
-        <v>0</v>
+      <c r="H50" s="7">
+        <v>1</v>
       </c>
       <c r="I50" s="8">
         <v>0</v>
@@ -8177,8 +8192,8 @@
       <c r="E51" s="6">
         <v>0</v>
       </c>
-      <c r="F51" s="8">
-        <v>0</v>
+      <c r="F51" s="7">
+        <v>3</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
@@ -8247,8 +8262,8 @@
       <c r="G53" s="8">
         <v>0</v>
       </c>
-      <c r="H53" s="8">
-        <v>0</v>
+      <c r="H53" s="7">
+        <v>1</v>
       </c>
       <c r="I53" s="8">
         <v>0</v>
@@ -8433,8 +8448,8 @@
       <c r="E59" s="6">
         <v>0</v>
       </c>
-      <c r="F59" s="8">
-        <v>0</v>
+      <c r="F59" s="7">
+        <v>9</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
@@ -8442,8 +8457,8 @@
       <c r="H59" s="8">
         <v>0</v>
       </c>
-      <c r="I59" s="8">
-        <v>0</v>
+      <c r="I59" s="7">
+        <v>1</v>
       </c>
       <c r="J59" s="8">
         <v>0</v>
@@ -8497,14 +8512,14 @@
       <c r="E61" s="6">
         <v>0</v>
       </c>
-      <c r="F61" s="8">
-        <v>0</v>
+      <c r="F61" s="7">
+        <v>1</v>
       </c>
       <c r="G61" s="8">
         <v>0</v>
       </c>
-      <c r="H61" s="8">
-        <v>0</v>
+      <c r="H61" s="7">
+        <v>1</v>
       </c>
       <c r="I61" s="8">
         <v>0</v>
@@ -8643,7 +8658,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -8735,8 +8750,8 @@
       <c r="E69" s="6">
         <v>0</v>
       </c>
-      <c r="F69" s="6">
-        <v>0</v>
+      <c r="F69" s="7">
+        <v>1</v>
       </c>
       <c r="G69" s="6">
         <v>0</v>
@@ -8860,8 +8875,8 @@
       <c r="D73" s="6">
         <v>0</v>
       </c>
-      <c r="E73" s="6">
-        <v>0</v>
+      <c r="E73" s="7">
+        <v>1</v>
       </c>
       <c r="F73" s="6">
         <v>0</v>
@@ -8927,8 +8942,8 @@
       <c r="E75" s="6">
         <v>0</v>
       </c>
-      <c r="F75" s="6">
-        <v>0</v>
+      <c r="F75" s="7">
+        <v>1</v>
       </c>
       <c r="G75" s="6">
         <v>0</v>
@@ -9201,7 +9216,7 @@
       </c>
       <c r="B84" s="13">
         <f>SUM(C2:J2)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C84" s="7">
         <f>SUM(C8:C82)</f>
@@ -9213,11 +9228,11 @@
       </c>
       <c r="E84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="1"/>
@@ -9225,11 +9240,11 @@
       </c>
       <c r="H84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" s="7">
         <f t="shared" si="1"/>
@@ -9304,7 +9319,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -9313,19 +9328,19 @@
       </c>
       <c r="D2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
@@ -9333,7 +9348,7 @@
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -9356,7 +9371,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -9576,8 +9591,8 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
+      <c r="F13" s="7">
+        <v>1</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -9585,8 +9600,8 @@
       <c r="H13" s="8">
         <v>0</v>
       </c>
-      <c r="I13" s="8">
-        <v>0</v>
+      <c r="I13" s="7">
+        <v>1</v>
       </c>
       <c r="J13" s="8">
         <v>0</v>
@@ -9643,8 +9658,8 @@
       <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="8">
-        <v>0</v>
+      <c r="G15" s="7">
+        <v>1</v>
       </c>
       <c r="H15" s="8">
         <v>0</v>
@@ -9736,8 +9751,8 @@
       <c r="E18" s="8">
         <v>0</v>
       </c>
-      <c r="F18" s="8">
-        <v>0</v>
+      <c r="F18" s="7">
+        <v>1</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -9771,8 +9786,8 @@
       <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
+      <c r="G19" s="7">
+        <v>1</v>
       </c>
       <c r="H19" s="8">
         <v>0</v>
@@ -9928,8 +9943,8 @@
       <c r="E24" s="8">
         <v>0</v>
       </c>
-      <c r="F24" s="8">
-        <v>0</v>
+      <c r="F24" s="7">
+        <v>1</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -10187,8 +10202,8 @@
       <c r="F32" s="8">
         <v>0</v>
       </c>
-      <c r="G32" s="8">
-        <v>0</v>
+      <c r="G32" s="7">
+        <v>1</v>
       </c>
       <c r="H32" s="8">
         <v>0</v>
@@ -10202,7 +10217,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -10675,8 +10690,8 @@
       <c r="D48" s="6">
         <v>0</v>
       </c>
-      <c r="E48" s="6">
-        <v>0</v>
+      <c r="E48" s="7">
+        <v>1</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
@@ -10713,8 +10728,8 @@
       <c r="F49" s="6">
         <v>0</v>
       </c>
-      <c r="G49" s="6">
-        <v>0</v>
+      <c r="G49" s="7">
+        <v>1</v>
       </c>
       <c r="H49" s="6">
         <v>0</v>
@@ -10768,11 +10783,11 @@
       <c r="C51" s="6">
         <v>0</v>
       </c>
-      <c r="D51" s="6">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1</v>
       </c>
       <c r="F51" s="6">
         <v>0</v>
@@ -10870,8 +10885,8 @@
       <c r="E54" s="6">
         <v>0</v>
       </c>
-      <c r="F54" s="6">
-        <v>0</v>
+      <c r="F54" s="7">
+        <v>1</v>
       </c>
       <c r="G54" s="6">
         <v>0</v>
@@ -11030,8 +11045,8 @@
       <c r="E59" s="6">
         <v>0</v>
       </c>
-      <c r="F59" s="6">
-        <v>0</v>
+      <c r="F59" s="7">
+        <v>5</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
@@ -11039,8 +11054,8 @@
       <c r="H59" s="6">
         <v>0</v>
       </c>
-      <c r="I59" s="6">
-        <v>0</v>
+      <c r="I59" s="7">
+        <v>1</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -11240,7 +11255,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -11620,8 +11635,8 @@
       <c r="E78" s="6">
         <v>0</v>
       </c>
-      <c r="F78" s="6">
-        <v>0</v>
+      <c r="F78" s="7">
+        <v>1</v>
       </c>
       <c r="G78" s="6">
         <v>0</v>
@@ -11798,7 +11813,7 @@
       </c>
       <c r="B84" s="13">
         <f>SUM(C2:J2)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C84" s="7">
         <f>SUM(C8:C82)</f>
@@ -11806,19 +11821,19 @@
       </c>
       <c r="D84" s="7">
         <f t="shared" ref="D84:J84" si="1">SUM(D8:D82)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H84" s="7">
         <f t="shared" si="1"/>
@@ -11826,7 +11841,7 @@
       </c>
       <c r="I84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" s="7">
         <f t="shared" si="1"/>
@@ -11852,8 +11867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:J66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11901,7 +11916,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -11914,23 +11929,23 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -11953,7 +11968,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -12013,8 +12028,8 @@
       <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
+      <c r="F8" s="7">
+        <v>1</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -12493,8 +12508,8 @@
       <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="F23" s="8">
-        <v>0</v>
+      <c r="F23" s="7">
+        <v>1</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
@@ -12685,8 +12700,8 @@
       <c r="E29" s="8">
         <v>0</v>
       </c>
-      <c r="F29" s="8">
-        <v>0</v>
+      <c r="F29" s="7">
+        <v>1</v>
       </c>
       <c r="G29" s="8">
         <v>0</v>
@@ -12799,7 +12814,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -13246,8 +13261,8 @@
       <c r="F47" s="6">
         <v>0</v>
       </c>
-      <c r="G47" s="6">
-        <v>0</v>
+      <c r="G47" s="7">
+        <v>1</v>
       </c>
       <c r="H47" s="6">
         <v>0</v>
@@ -13339,8 +13354,8 @@
       <c r="E50" s="6">
         <v>0</v>
       </c>
-      <c r="F50" s="6">
-        <v>0</v>
+      <c r="F50" s="7">
+        <v>1</v>
       </c>
       <c r="G50" s="6">
         <v>0</v>
@@ -13374,8 +13389,8 @@
       <c r="F51" s="6">
         <v>0</v>
       </c>
-      <c r="G51" s="6">
-        <v>0</v>
+      <c r="G51" s="7">
+        <v>1</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
@@ -13563,8 +13578,8 @@
       <c r="E57" s="6">
         <v>0</v>
       </c>
-      <c r="F57" s="6">
-        <v>0</v>
+      <c r="F57" s="7">
+        <v>1</v>
       </c>
       <c r="G57" s="6">
         <v>0</v>
@@ -13627,8 +13642,8 @@
       <c r="E59" s="6">
         <v>0</v>
       </c>
-      <c r="F59" s="6">
-        <v>0</v>
+      <c r="F59" s="7">
+        <v>7</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
@@ -13700,8 +13715,8 @@
       <c r="H61" s="6">
         <v>0</v>
       </c>
-      <c r="I61" s="6">
-        <v>0</v>
+      <c r="I61" s="7">
+        <v>1</v>
       </c>
       <c r="J61" s="6">
         <v>0</v>
@@ -13758,11 +13773,11 @@
       <c r="F63" s="6">
         <v>0</v>
       </c>
-      <c r="G63" s="6">
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <v>0</v>
+      <c r="G63" s="7">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1</v>
       </c>
       <c r="I63" s="6">
         <v>0</v>
@@ -13837,7 +13852,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -14025,8 +14040,8 @@
       <c r="E72" s="6">
         <v>0</v>
       </c>
-      <c r="F72" s="6">
-        <v>0</v>
+      <c r="F72" s="7">
+        <v>1</v>
       </c>
       <c r="G72" s="6">
         <v>0</v>
@@ -14054,8 +14069,8 @@
       <c r="D73" s="6">
         <v>0</v>
       </c>
-      <c r="E73" s="6">
-        <v>0</v>
+      <c r="E73" s="7">
+        <v>1</v>
       </c>
       <c r="F73" s="6">
         <v>0</v>
@@ -14121,8 +14136,8 @@
       <c r="E75" s="6">
         <v>0</v>
       </c>
-      <c r="F75" s="6">
-        <v>0</v>
+      <c r="F75" s="7">
+        <v>1</v>
       </c>
       <c r="G75" s="6">
         <v>0</v>
@@ -14395,7 +14410,7 @@
       </c>
       <c r="B84" s="13">
         <f>SUM(C2:J2)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C84" s="7">
         <f>SUM(C8:C82)</f>
@@ -14407,23 +14422,23 @@
       </c>
       <c r="E84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="7">
         <f t="shared" si="1"/>
@@ -14507,27 +14522,27 @@
       </c>
       <c r="D2" s="7">
         <f>D84</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="7">
         <f>E84</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" ref="F2:J2" si="0">F84</f>
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -14550,7 +14565,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -14615,7 +14630,7 @@
       </c>
       <c r="F8" s="15">
         <f>SUM(January:December!F8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="15">
         <f>SUM(January:December!G8)</f>
@@ -14735,7 +14750,7 @@
       </c>
       <c r="F11" s="15">
         <f>SUM(January:December!F11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="15">
         <f>SUM(January:December!G11)</f>
@@ -14743,7 +14758,7 @@
       </c>
       <c r="H11" s="15">
         <f>SUM(January:December!H11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="15">
         <f>SUM(January:December!I11)</f>
@@ -14815,7 +14830,7 @@
       </c>
       <c r="F13" s="15">
         <f>SUM(January:December!F13)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G13" s="15">
         <f>SUM(January:December!G13)</f>
@@ -14827,7 +14842,7 @@
       </c>
       <c r="I13" s="15">
         <f>SUM(January:December!I13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="15">
         <f>SUM(January:December!J13)</f>
@@ -14899,7 +14914,7 @@
       </c>
       <c r="G15" s="15">
         <f>SUM(January:December!G15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="15">
         <f>SUM(January:December!H15)</f>
@@ -14935,7 +14950,7 @@
       </c>
       <c r="F16" s="15">
         <f>SUM(January:December!F16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="15">
         <f>SUM(January:December!G16)</f>
@@ -14947,7 +14962,7 @@
       </c>
       <c r="I16" s="15">
         <f>SUM(January:December!I16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="15">
         <f>SUM(January:December!J16)</f>
@@ -15015,7 +15030,7 @@
       </c>
       <c r="F18" s="15">
         <f>SUM(January:December!F18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="15">
         <f>SUM(January:December!G18)</f>
@@ -15055,11 +15070,11 @@
       </c>
       <c r="F19" s="15">
         <f>SUM(January:December!F19)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" s="15">
         <f>SUM(January:December!G19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="15">
         <f>SUM(January:December!H19)</f>
@@ -15067,7 +15082,7 @@
       </c>
       <c r="I19" s="15">
         <f>SUM(January:December!I19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="15">
         <f>SUM(January:December!J19)</f>
@@ -15135,11 +15150,11 @@
       </c>
       <c r="F21" s="15">
         <f>SUM(January:December!F21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="15">
         <f>SUM(January:December!G21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="15">
         <f>SUM(January:December!H21)</f>
@@ -15175,7 +15190,7 @@
       </c>
       <c r="F22" s="15">
         <f>SUM(January:December!F22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="15">
         <f>SUM(January:December!G22)</f>
@@ -15215,7 +15230,7 @@
       </c>
       <c r="F23" s="15">
         <f>SUM(January:December!F23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="15">
         <f>SUM(January:December!G23)</f>
@@ -15255,11 +15270,11 @@
       </c>
       <c r="F24" s="15">
         <f>SUM(January:December!F24)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="15">
         <f>SUM(January:December!G24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="15">
         <f>SUM(January:December!H24)</f>
@@ -15291,11 +15306,11 @@
       </c>
       <c r="E25" s="15">
         <f>SUM(January:December!E25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="15">
         <f>SUM(January:December!F25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="15">
         <f>SUM(January:December!G25)</f>
@@ -15335,7 +15350,7 @@
       </c>
       <c r="F26" s="15">
         <f>SUM(January:December!F26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="15">
         <f>SUM(January:December!G26)</f>
@@ -15423,7 +15438,7 @@
       </c>
       <c r="H28" s="15">
         <f>SUM(January:December!H28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="15">
         <f>SUM(January:December!I28)</f>
@@ -15455,7 +15470,7 @@
       </c>
       <c r="F29" s="15">
         <f>SUM(January:December!F29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="15">
         <f>SUM(January:December!G29)</f>
@@ -15579,7 +15594,7 @@
       </c>
       <c r="G32" s="15">
         <f>SUM(January:December!G32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="15">
         <f>SUM(January:December!H32)</f>
@@ -15596,7 +15611,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -15781,7 +15796,7 @@
       </c>
       <c r="F38" s="6">
         <f>SUM(January:December!F38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="6">
         <f>SUM(January:December!G38)</f>
@@ -15869,7 +15884,7 @@
       </c>
       <c r="H40" s="6">
         <f>SUM(January:December!H40)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40" s="6">
         <f>SUM(January:December!I40)</f>
@@ -15901,7 +15916,7 @@
       </c>
       <c r="F41" s="6">
         <f>SUM(January:December!F41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="6">
         <f>SUM(January:December!G41)</f>
@@ -15941,7 +15956,7 @@
       </c>
       <c r="F42" s="6">
         <f>SUM(January:December!F42)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="6">
         <f>SUM(January:December!G42)</f>
@@ -15981,7 +15996,7 @@
       </c>
       <c r="F43" s="6">
         <f>SUM(January:December!F43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="6">
         <f>SUM(January:December!G43)</f>
@@ -16021,7 +16036,7 @@
       </c>
       <c r="F44" s="6">
         <f>SUM(January:December!F44)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G44" s="6">
         <f>SUM(January:December!G44)</f>
@@ -16029,11 +16044,11 @@
       </c>
       <c r="H44" s="6">
         <f>SUM(January:December!H44)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I44" s="6">
         <f>SUM(January:December!I44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="6">
         <f>SUM(January:December!J44)</f>
@@ -16145,7 +16160,7 @@
       </c>
       <c r="G47" s="6">
         <f>SUM(January:December!G47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="6">
         <f>SUM(January:December!H47)</f>
@@ -16177,7 +16192,7 @@
       </c>
       <c r="E48" s="6">
         <f>SUM(January:December!E48)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="6">
         <f>SUM(January:December!F48)</f>
@@ -16189,7 +16204,7 @@
       </c>
       <c r="H48" s="6">
         <f>SUM(January:December!H48)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" s="6">
         <f>SUM(January:December!I48)</f>
@@ -16217,19 +16232,19 @@
       </c>
       <c r="E49" s="6">
         <f>SUM(January:December!E49)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="6">
         <f>SUM(January:December!F49)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G49" s="6">
         <f>SUM(January:December!G49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="6">
         <f>SUM(January:December!H49)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="6">
         <f>SUM(January:December!I49)</f>
@@ -16261,7 +16276,7 @@
       </c>
       <c r="F50" s="6">
         <f>SUM(January:December!F50)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="6">
         <f>SUM(January:December!G50)</f>
@@ -16269,7 +16284,7 @@
       </c>
       <c r="H50" s="6">
         <f>SUM(January:December!H50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="6">
         <f>SUM(January:December!I50)</f>
@@ -16293,23 +16308,23 @@
       </c>
       <c r="D51" s="6">
         <f>SUM(January:December!D51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="6">
         <f>SUM(January:December!E51)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="6">
         <f>SUM(January:December!F51)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G51" s="6">
         <f>SUM(January:December!G51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="6">
         <f>SUM(January:December!H51)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" s="6">
         <f>SUM(January:December!I51)</f>
@@ -16389,7 +16404,7 @@
       </c>
       <c r="H53" s="6">
         <f>SUM(January:December!H53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="6">
         <f>SUM(January:December!I53)</f>
@@ -16421,7 +16436,7 @@
       </c>
       <c r="F54" s="6">
         <f>SUM(January:December!F54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" s="6">
         <f>SUM(January:December!G54)</f>
@@ -16429,7 +16444,7 @@
       </c>
       <c r="H54" s="6">
         <f>SUM(January:December!H54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="6">
         <f>SUM(January:December!I54)</f>
@@ -16541,7 +16556,7 @@
       </c>
       <c r="F57" s="6">
         <f>SUM(January:December!F57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="6">
         <f>SUM(January:December!G57)</f>
@@ -16581,7 +16596,7 @@
       </c>
       <c r="F58" s="6">
         <f>SUM(January:December!F58)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="6">
         <f>SUM(January:December!G58)</f>
@@ -16617,23 +16632,23 @@
       </c>
       <c r="E59" s="6">
         <f>SUM(January:December!E59)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="6">
         <f>SUM(January:December!F59)</f>
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G59" s="6">
         <f>SUM(January:December!G59)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59" s="6">
         <f>SUM(January:December!H59)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="6">
         <f>SUM(January:December!I59)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J59" s="6">
         <f>SUM(January:December!J59)</f>
@@ -16657,7 +16672,7 @@
       </c>
       <c r="E60" s="6">
         <f>SUM(January:December!E60)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="6">
         <f>SUM(January:December!F60)</f>
@@ -16701,7 +16716,7 @@
       </c>
       <c r="F61" s="6">
         <f>SUM(January:December!F61)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G61" s="6">
         <f>SUM(January:December!G61)</f>
@@ -16709,11 +16724,11 @@
       </c>
       <c r="H61" s="6">
         <f>SUM(January:December!H61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="6">
         <f>SUM(January:December!I61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="6">
         <f>SUM(January:December!J61)</f>
@@ -16741,7 +16756,7 @@
       </c>
       <c r="F62" s="6">
         <f>SUM(January:December!F62)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62" s="6">
         <f>SUM(January:December!G62)</f>
@@ -16777,19 +16792,19 @@
       </c>
       <c r="E63" s="6">
         <f>SUM(January:December!E63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="6">
         <f>SUM(January:December!F63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="6">
         <f>SUM(January:December!G63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="6">
         <f>SUM(January:December!H63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="6">
         <f>SUM(January:December!I63)</f>
@@ -16821,11 +16836,11 @@
       </c>
       <c r="F64" s="6">
         <f>SUM(January:December!F64)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G64" s="6">
         <f>SUM(January:December!G64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="6">
         <f>SUM(January:December!H64)</f>
@@ -16861,7 +16876,7 @@
       </c>
       <c r="F65" s="6">
         <f>SUM(January:December!F65)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="6">
         <f>SUM(January:December!G65)</f>
@@ -16882,7 +16897,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -16987,7 +17002,7 @@
       </c>
       <c r="F69" s="6">
         <f>SUM(January:December!F69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="6">
         <f>SUM(January:December!G69)</f>
@@ -17027,7 +17042,7 @@
       </c>
       <c r="F70" s="6">
         <f>SUM(January:December!F70)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="6">
         <f>SUM(January:December!G70)</f>
@@ -17067,7 +17082,7 @@
       </c>
       <c r="F71" s="6">
         <f>SUM(January:December!F71)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="6">
         <f>SUM(January:December!G71)</f>
@@ -17107,11 +17122,11 @@
       </c>
       <c r="F72" s="6">
         <f>SUM(January:December!F72)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G72" s="6">
         <f>SUM(January:December!G72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="6">
         <f>SUM(January:December!H72)</f>
@@ -17143,7 +17158,7 @@
       </c>
       <c r="E73" s="6">
         <f>SUM(January:December!E73)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" s="6">
         <f>SUM(January:December!F73)</f>
@@ -17227,7 +17242,7 @@
       </c>
       <c r="F75" s="6">
         <f>SUM(January:December!F75)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G75" s="6">
         <f>SUM(January:December!G75)</f>
@@ -17259,7 +17274,7 @@
       </c>
       <c r="D76" s="6">
         <f>SUM(January:December!D76)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="6">
         <f>SUM(January:December!E76)</f>
@@ -17307,7 +17322,7 @@
       </c>
       <c r="F77" s="6">
         <f>SUM(January:December!F77)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="6">
         <f>SUM(January:December!G77)</f>
@@ -17315,7 +17330,7 @@
       </c>
       <c r="H77" s="6">
         <f>SUM(January:December!H77)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" s="6">
         <f>SUM(January:December!I77)</f>
@@ -17343,11 +17358,11 @@
       </c>
       <c r="E78" s="6">
         <f>SUM(January:December!E78)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="6">
         <f>SUM(January:December!F78)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G78" s="6">
         <f>SUM(January:December!G78)</f>
@@ -17467,7 +17482,7 @@
       </c>
       <c r="F81" s="6">
         <f>SUM(January:December!F81)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81" s="6">
         <f>SUM(January:December!G81)</f>
@@ -17507,7 +17522,7 @@
       </c>
       <c r="F82" s="6">
         <f>SUM(January:December!F82)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" s="6">
         <f>SUM(January:December!G82)</f>
@@ -17560,7 +17575,7 @@
       </c>
       <c r="B84" s="13">
         <f>SUM(C2:J2)</f>
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="C84" s="7">
         <f>SUM(C8:C82)</f>
@@ -17568,27 +17583,27 @@
       </c>
       <c r="D84" s="7">
         <f t="shared" ref="D84:J84" si="1">SUM(D8:D82)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F84" s="7">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H84" s="7">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J84" s="7">
         <f t="shared" si="1"/>
@@ -17662,7 +17677,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -17738,7 +17753,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -18584,7 +18599,7 @@
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -19622,7 +19637,7 @@
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -20282,7 +20297,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -20358,7 +20373,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -21204,7 +21219,7 @@
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -22242,7 +22257,7 @@
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -22901,7 +22916,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -22977,7 +22992,7 @@
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -23823,7 +23838,7 @@
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -24861,7 +24876,7 @@
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -25521,7 +25536,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -25573,7 +25588,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -26419,7 +26434,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -27457,7 +27472,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -28069,7 +28084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -28117,7 +28132,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -28169,7 +28184,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -29015,7 +29030,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -30053,7 +30068,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -30666,7 +30681,7 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30713,7 +30728,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -30722,23 +30737,23 @@
       </c>
       <c r="D2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
@@ -30765,7 +30780,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -30825,8 +30840,8 @@
       <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
+      <c r="F8" s="7">
+        <v>1</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -30921,8 +30936,8 @@
       <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
+      <c r="F11" s="7">
+        <v>1</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
@@ -30985,8 +31000,8 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
+      <c r="F13" s="7">
+        <v>2</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -31177,8 +31192,8 @@
       <c r="E19" s="8">
         <v>0</v>
       </c>
-      <c r="F19" s="8">
-        <v>0</v>
+      <c r="F19" s="7">
+        <v>2</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
@@ -31337,8 +31352,8 @@
       <c r="E24" s="8">
         <v>0</v>
       </c>
-      <c r="F24" s="8">
-        <v>0</v>
+      <c r="F24" s="7">
+        <v>1</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -31366,8 +31381,8 @@
       <c r="D25" s="8">
         <v>0</v>
       </c>
-      <c r="E25" s="8">
-        <v>0</v>
+      <c r="E25" s="7">
+        <v>1</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -31611,7 +31626,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -31959,14 +31974,14 @@
       <c r="E44" s="6">
         <v>0</v>
       </c>
-      <c r="F44" s="8">
-        <v>0</v>
+      <c r="F44" s="7">
+        <v>1</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
       </c>
-      <c r="H44" s="8">
-        <v>0</v>
+      <c r="H44" s="7">
+        <v>1</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
@@ -32093,8 +32108,8 @@
       <c r="G48" s="8">
         <v>0</v>
       </c>
-      <c r="H48" s="8">
-        <v>0</v>
+      <c r="H48" s="7">
+        <v>1</v>
       </c>
       <c r="I48" s="8">
         <v>0</v>
@@ -32119,8 +32134,8 @@
       <c r="E49" s="6">
         <v>0</v>
       </c>
-      <c r="F49" s="8">
-        <v>0</v>
+      <c r="F49" s="7">
+        <v>1</v>
       </c>
       <c r="G49" s="8">
         <v>0</v>
@@ -32183,14 +32198,14 @@
       <c r="E51" s="6">
         <v>0</v>
       </c>
-      <c r="F51" s="8">
-        <v>0</v>
+      <c r="F51" s="7">
+        <v>1</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
       </c>
-      <c r="H51" s="8">
-        <v>0</v>
+      <c r="H51" s="7">
+        <v>1</v>
       </c>
       <c r="I51" s="8">
         <v>0</v>
@@ -32407,8 +32422,8 @@
       <c r="E58" s="6">
         <v>0</v>
       </c>
-      <c r="F58" s="8">
-        <v>0</v>
+      <c r="F58" s="7">
+        <v>1</v>
       </c>
       <c r="G58" s="8">
         <v>0</v>
@@ -32439,14 +32454,14 @@
       <c r="E59" s="6">
         <v>0</v>
       </c>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8">
-        <v>0</v>
+      <c r="F59" s="7">
+        <v>13</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1</v>
       </c>
       <c r="I59" s="8">
         <v>0</v>
@@ -32599,8 +32614,8 @@
       <c r="E64" s="6">
         <v>0</v>
       </c>
-      <c r="F64" s="8">
-        <v>0</v>
+      <c r="F64" s="7">
+        <v>1</v>
       </c>
       <c r="G64" s="8">
         <v>0</v>
@@ -32649,7 +32664,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -32837,8 +32852,8 @@
       <c r="E72" s="6">
         <v>0</v>
       </c>
-      <c r="F72" s="6">
-        <v>0</v>
+      <c r="F72" s="7">
+        <v>1</v>
       </c>
       <c r="G72" s="6">
         <v>0</v>
@@ -32933,8 +32948,8 @@
       <c r="E75" s="6">
         <v>0</v>
       </c>
-      <c r="F75" s="6">
-        <v>0</v>
+      <c r="F75" s="7">
+        <v>1</v>
       </c>
       <c r="G75" s="6">
         <v>0</v>
@@ -32959,8 +32974,8 @@
       <c r="C76" s="6">
         <v>0</v>
       </c>
-      <c r="D76" s="6">
-        <v>0</v>
+      <c r="D76" s="7">
+        <v>1</v>
       </c>
       <c r="E76" s="6">
         <v>0</v>
@@ -33026,8 +33041,8 @@
       <c r="D78" s="6">
         <v>0</v>
       </c>
-      <c r="E78" s="6">
-        <v>0</v>
+      <c r="E78" s="7">
+        <v>1</v>
       </c>
       <c r="F78" s="6">
         <v>0</v>
@@ -33125,8 +33140,8 @@
       <c r="E81" s="6">
         <v>0</v>
       </c>
-      <c r="F81" s="6">
-        <v>0</v>
+      <c r="F81" s="7">
+        <v>1</v>
       </c>
       <c r="G81" s="6">
         <v>0</v>
@@ -33207,7 +33222,7 @@
       </c>
       <c r="B84" s="13">
         <f>SUM(C2:J2)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C84" s="7">
         <f>SUM(C8:C82)</f>
@@ -33215,23 +33230,23 @@
       </c>
       <c r="D84" s="7">
         <f>SUM(D8:D82)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" ref="E84:J84" si="1">SUM(E8:E82)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="1"/>
@@ -33262,7 +33277,7 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:J66"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33309,7 +33324,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="7">
@@ -33322,23 +33337,23 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
@@ -33361,7 +33376,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -33517,8 +33532,8 @@
       <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
+      <c r="F11" s="7">
+        <v>1</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
@@ -33741,8 +33756,8 @@
       <c r="E18" s="8">
         <v>0</v>
       </c>
-      <c r="F18" s="8">
-        <v>0</v>
+      <c r="F18" s="7">
+        <v>1</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -33933,8 +33948,8 @@
       <c r="E24" s="8">
         <v>0</v>
       </c>
-      <c r="F24" s="8">
-        <v>0</v>
+      <c r="F24" s="7">
+        <v>1</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -33965,8 +33980,8 @@
       <c r="E25" s="8">
         <v>0</v>
       </c>
-      <c r="F25" s="8">
-        <v>0</v>
+      <c r="F25" s="7">
+        <v>1</v>
       </c>
       <c r="G25" s="8">
         <v>0</v>
@@ -34207,7 +34222,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -34491,8 +34506,8 @@
       <c r="E42" s="6">
         <v>0</v>
       </c>
-      <c r="F42" s="8">
-        <v>0</v>
+      <c r="F42" s="7">
+        <v>1</v>
       </c>
       <c r="G42" s="8">
         <v>0</v>
@@ -34555,8 +34570,8 @@
       <c r="E44" s="6">
         <v>0</v>
       </c>
-      <c r="F44" s="8">
-        <v>0</v>
+      <c r="F44" s="7">
+        <v>2</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
@@ -34785,8 +34800,8 @@
       <c r="G51" s="8">
         <v>0</v>
       </c>
-      <c r="H51" s="8">
-        <v>0</v>
+      <c r="H51" s="7">
+        <v>1</v>
       </c>
       <c r="I51" s="8">
         <v>0</v>
@@ -34881,8 +34896,8 @@
       <c r="G54" s="8">
         <v>0</v>
       </c>
-      <c r="H54" s="8">
-        <v>0</v>
+      <c r="H54" s="7">
+        <v>1</v>
       </c>
       <c r="I54" s="8">
         <v>0</v>
@@ -35032,20 +35047,20 @@
       <c r="D59" s="6">
         <v>0</v>
       </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8">
-        <v>0</v>
+      <c r="E59" s="7">
+        <v>1</v>
+      </c>
+      <c r="F59" s="7">
+        <v>2</v>
+      </c>
+      <c r="G59" s="7">
+        <v>2</v>
       </c>
       <c r="H59" s="8">
         <v>0</v>
       </c>
-      <c r="I59" s="8">
-        <v>0</v>
+      <c r="I59" s="7">
+        <v>1</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -35195,8 +35210,8 @@
       <c r="E64" s="6">
         <v>0</v>
       </c>
-      <c r="F64" s="8">
-        <v>0</v>
+      <c r="F64" s="7">
+        <v>1</v>
       </c>
       <c r="G64" s="8">
         <v>0</v>
@@ -35245,7 +35260,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -35433,8 +35448,8 @@
       <c r="E72" s="6">
         <v>0</v>
       </c>
-      <c r="F72" s="6">
-        <v>0</v>
+      <c r="F72" s="7">
+        <v>1</v>
       </c>
       <c r="G72" s="6">
         <v>0</v>
@@ -35803,7 +35818,7 @@
       </c>
       <c r="B84" s="13">
         <f>SUM(C2:J2)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" ref="C84:J84" si="1">SUM(C8:C82)</f>
@@ -35815,23 +35830,23 @@
       </c>
       <c r="E84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="7">
         <f t="shared" si="1"/>
